--- a/MFPES/res/auxiliary_res_reruns.xlsx
+++ b/MFPES/res/auxiliary_res_reruns.xlsx
@@ -368,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:I94"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,6 +3102,2355 @@
         <v>94</v>
       </c>
     </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>20</v>
+      </c>
+      <c r="B95">
+        <v>256</v>
+      </c>
+      <c r="C95">
+        <v>1E-4</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1E-4</v>
+      </c>
+      <c r="F95">
+        <v>169.25</v>
+      </c>
+      <c r="G95">
+        <v>85.744226371168921</v>
+      </c>
+      <c r="H95">
+        <v>0.1028</v>
+      </c>
+      <c r="I95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>20</v>
+      </c>
+      <c r="B96">
+        <v>256</v>
+      </c>
+      <c r="C96">
+        <v>1E-4</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1E-3</v>
+      </c>
+      <c r="F96">
+        <v>168.84375</v>
+      </c>
+      <c r="G96">
+        <v>92.159579587085616</v>
+      </c>
+      <c r="H96">
+        <v>0.09</v>
+      </c>
+      <c r="I96">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>20</v>
+      </c>
+      <c r="B97">
+        <v>256</v>
+      </c>
+      <c r="C97">
+        <v>1E-3</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F97">
+        <v>175.046875</v>
+      </c>
+      <c r="G97">
+        <v>97.439575529908396</v>
+      </c>
+      <c r="H97">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="I97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>20</v>
+      </c>
+      <c r="B98">
+        <v>256</v>
+      </c>
+      <c r="C98">
+        <v>1E-3</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1E-4</v>
+      </c>
+      <c r="F98">
+        <v>169.484375</v>
+      </c>
+      <c r="G98">
+        <v>85.108801780328008</v>
+      </c>
+      <c r="H98">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>20</v>
+      </c>
+      <c r="B99">
+        <v>256</v>
+      </c>
+      <c r="C99">
+        <v>1E-3</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1E-3</v>
+      </c>
+      <c r="F99">
+        <v>168.46875</v>
+      </c>
+      <c r="G99">
+        <v>85.454610933609601</v>
+      </c>
+      <c r="H99">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="I99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>256</v>
+      </c>
+      <c r="C100">
+        <v>1E-3</v>
+      </c>
+      <c r="D100">
+        <v>0.5</v>
+      </c>
+      <c r="E100">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F100">
+        <v>169.734375</v>
+      </c>
+      <c r="G100">
+        <v>85.255902528732307</v>
+      </c>
+      <c r="H100">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>20</v>
+      </c>
+      <c r="B101">
+        <v>256</v>
+      </c>
+      <c r="C101">
+        <v>1E-3</v>
+      </c>
+      <c r="D101">
+        <v>0.5</v>
+      </c>
+      <c r="E101">
+        <v>1E-4</v>
+      </c>
+      <c r="F101">
+        <v>170.671875</v>
+      </c>
+      <c r="G101">
+        <v>85.252751877048212</v>
+      </c>
+      <c r="H101">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="I101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>20</v>
+      </c>
+      <c r="B102">
+        <v>256</v>
+      </c>
+      <c r="C102">
+        <v>1E-3</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>1E-3</v>
+      </c>
+      <c r="F102">
+        <v>171.328125</v>
+      </c>
+      <c r="G102">
+        <v>85.190322968211532</v>
+      </c>
+      <c r="H102">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="I102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>20</v>
+      </c>
+      <c r="B103">
+        <v>256</v>
+      </c>
+      <c r="C103">
+        <v>1E-3</v>
+      </c>
+      <c r="D103">
+        <v>0.9</v>
+      </c>
+      <c r="E103">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F103">
+        <v>171.5</v>
+      </c>
+      <c r="G103">
+        <v>88.562336837478654</v>
+      </c>
+      <c r="H103">
+        <v>0.98</v>
+      </c>
+      <c r="I103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>20</v>
+      </c>
+      <c r="B104">
+        <v>256</v>
+      </c>
+      <c r="C104">
+        <v>1E-3</v>
+      </c>
+      <c r="D104">
+        <v>0.9</v>
+      </c>
+      <c r="E104">
+        <v>1E-4</v>
+      </c>
+      <c r="F104">
+        <v>169.5</v>
+      </c>
+      <c r="G104">
+        <v>83.875835283434881</v>
+      </c>
+      <c r="H104">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="I104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>20</v>
+      </c>
+      <c r="B105">
+        <v>256</v>
+      </c>
+      <c r="C105">
+        <v>1E-3</v>
+      </c>
+      <c r="D105">
+        <v>0.9</v>
+      </c>
+      <c r="E105">
+        <v>1E-3</v>
+      </c>
+      <c r="F105">
+        <v>166.796875</v>
+      </c>
+      <c r="G105">
+        <v>83.599182889338081</v>
+      </c>
+      <c r="H105">
+        <v>0.98</v>
+      </c>
+      <c r="I105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>20</v>
+      </c>
+      <c r="B106">
+        <v>256</v>
+      </c>
+      <c r="C106">
+        <v>1E-3</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F106">
+        <v>168.40625</v>
+      </c>
+      <c r="G106">
+        <v>83.689860800181606</v>
+      </c>
+      <c r="H106">
+        <v>0.1148</v>
+      </c>
+      <c r="I106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>20</v>
+      </c>
+      <c r="B107">
+        <v>256</v>
+      </c>
+      <c r="C107">
+        <v>1E-3</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1E-4</v>
+      </c>
+      <c r="F107">
+        <v>168.90625</v>
+      </c>
+      <c r="G107">
+        <v>83.53156960836165</v>
+      </c>
+      <c r="H107">
+        <v>0.09</v>
+      </c>
+      <c r="I107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>20</v>
+      </c>
+      <c r="B108">
+        <v>256</v>
+      </c>
+      <c r="C108">
+        <v>1E-3</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1E-3</v>
+      </c>
+      <c r="F108">
+        <v>166.640625</v>
+      </c>
+      <c r="G108">
+        <v>83.973437564148071</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>20</v>
+      </c>
+      <c r="B109">
+        <v>512</v>
+      </c>
+      <c r="C109">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F109">
+        <v>137.203125</v>
+      </c>
+      <c r="G109">
+        <v>64.268313144046701</v>
+      </c>
+      <c r="H109">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="I109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>20</v>
+      </c>
+      <c r="B110">
+        <v>512</v>
+      </c>
+      <c r="C110">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1E-4</v>
+      </c>
+      <c r="F110">
+        <v>137.203125</v>
+      </c>
+      <c r="G110">
+        <v>64.05236807532826</v>
+      </c>
+      <c r="H110">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>512</v>
+      </c>
+      <c r="C111">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1E-3</v>
+      </c>
+      <c r="F111">
+        <v>137.375</v>
+      </c>
+      <c r="G111">
+        <v>64.210061558004355</v>
+      </c>
+      <c r="H111">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>20</v>
+      </c>
+      <c r="B112">
+        <v>512</v>
+      </c>
+      <c r="C112">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D112">
+        <v>0.5</v>
+      </c>
+      <c r="E112">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F112">
+        <v>138.15625</v>
+      </c>
+      <c r="G112">
+        <v>63.902321647213952</v>
+      </c>
+      <c r="H112">
+        <v>0.94879999999999998</v>
+      </c>
+      <c r="I112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113">
+        <v>512</v>
+      </c>
+      <c r="C113">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D113">
+        <v>0.5</v>
+      </c>
+      <c r="E113">
+        <v>1E-4</v>
+      </c>
+      <c r="F113">
+        <v>137.296875</v>
+      </c>
+      <c r="G113">
+        <v>63.818348040600753</v>
+      </c>
+      <c r="H113">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="I113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>20</v>
+      </c>
+      <c r="B114">
+        <v>512</v>
+      </c>
+      <c r="C114">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D114">
+        <v>0.5</v>
+      </c>
+      <c r="E114">
+        <v>1E-3</v>
+      </c>
+      <c r="F114">
+        <v>136.515625</v>
+      </c>
+      <c r="G114">
+        <v>63.685543106300457</v>
+      </c>
+      <c r="H114">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I114">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>20</v>
+      </c>
+      <c r="B115">
+        <v>512</v>
+      </c>
+      <c r="C115">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D115">
+        <v>0.9</v>
+      </c>
+      <c r="E115">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F115">
+        <v>138.234375</v>
+      </c>
+      <c r="G115">
+        <v>63.424593255908867</v>
+      </c>
+      <c r="H115">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="I115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116">
+        <v>512</v>
+      </c>
+      <c r="C116">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D116">
+        <v>0.9</v>
+      </c>
+      <c r="E116">
+        <v>1E-4</v>
+      </c>
+      <c r="F116">
+        <v>138.0625</v>
+      </c>
+      <c r="G116">
+        <v>64.24605572339712</v>
+      </c>
+      <c r="H116">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="I116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>20</v>
+      </c>
+      <c r="B117">
+        <v>512</v>
+      </c>
+      <c r="C117">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D117">
+        <v>0.9</v>
+      </c>
+      <c r="E117">
+        <v>1E-3</v>
+      </c>
+      <c r="F117">
+        <v>136.6875</v>
+      </c>
+      <c r="G117">
+        <v>63.982816465860544</v>
+      </c>
+      <c r="H117">
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="I117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="B118">
+        <v>512</v>
+      </c>
+      <c r="C118">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F118">
+        <v>138.3125</v>
+      </c>
+      <c r="G118">
+        <v>64.339442947152847</v>
+      </c>
+      <c r="H118">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="I118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>20</v>
+      </c>
+      <c r="B119">
+        <v>512</v>
+      </c>
+      <c r="C119">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1E-4</v>
+      </c>
+      <c r="F119">
+        <v>137.578125</v>
+      </c>
+      <c r="G119">
+        <v>64.016176786667344</v>
+      </c>
+      <c r="H119">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="I119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120">
+        <v>512</v>
+      </c>
+      <c r="C120">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1E-3</v>
+      </c>
+      <c r="F120">
+        <v>136.296875</v>
+      </c>
+      <c r="G120">
+        <v>63.358628505050945</v>
+      </c>
+      <c r="H120">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="I120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>512</v>
+      </c>
+      <c r="C121">
+        <v>1E-4</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F121">
+        <v>137.8125</v>
+      </c>
+      <c r="G121">
+        <v>63.513365138704749</v>
+      </c>
+      <c r="H121">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="I121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>20</v>
+      </c>
+      <c r="B122">
+        <v>512</v>
+      </c>
+      <c r="C122">
+        <v>1E-4</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1E-4</v>
+      </c>
+      <c r="F122">
+        <v>137.375</v>
+      </c>
+      <c r="G122">
+        <v>63.000959353363228</v>
+      </c>
+      <c r="H122">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="I122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>20</v>
+      </c>
+      <c r="B123">
+        <v>512</v>
+      </c>
+      <c r="C123">
+        <v>1E-4</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>1E-3</v>
+      </c>
+      <c r="F123">
+        <v>136.78125</v>
+      </c>
+      <c r="G123">
+        <v>62.197968815280099</v>
+      </c>
+      <c r="H123">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="I123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>20</v>
+      </c>
+      <c r="B124">
+        <v>512</v>
+      </c>
+      <c r="C124">
+        <v>1E-4</v>
+      </c>
+      <c r="D124">
+        <v>0.5</v>
+      </c>
+      <c r="E124">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F124">
+        <v>137.140625</v>
+      </c>
+      <c r="G124">
+        <v>62.213450689599377</v>
+      </c>
+      <c r="H124">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="I124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>20</v>
+      </c>
+      <c r="B125">
+        <v>512</v>
+      </c>
+      <c r="C125">
+        <v>1E-4</v>
+      </c>
+      <c r="D125">
+        <v>0.5</v>
+      </c>
+      <c r="E125">
+        <v>1E-4</v>
+      </c>
+      <c r="F125">
+        <v>137.5625</v>
+      </c>
+      <c r="G125">
+        <v>62.416975784930969</v>
+      </c>
+      <c r="H125">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="I125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>20</v>
+      </c>
+      <c r="B126">
+        <v>512</v>
+      </c>
+      <c r="C126">
+        <v>1E-4</v>
+      </c>
+      <c r="D126">
+        <v>0.5</v>
+      </c>
+      <c r="E126">
+        <v>1E-3</v>
+      </c>
+      <c r="F126">
+        <v>135.796875</v>
+      </c>
+      <c r="G126">
+        <v>61.901283203044812</v>
+      </c>
+      <c r="H126">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="I126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>20</v>
+      </c>
+      <c r="B127">
+        <v>512</v>
+      </c>
+      <c r="C127">
+        <v>1E-4</v>
+      </c>
+      <c r="D127">
+        <v>0.9</v>
+      </c>
+      <c r="E127">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F127">
+        <v>136.1875</v>
+      </c>
+      <c r="G127">
+        <v>61.871274883416532</v>
+      </c>
+      <c r="H127">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="I127">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>20</v>
+      </c>
+      <c r="B128">
+        <v>512</v>
+      </c>
+      <c r="C128">
+        <v>1E-4</v>
+      </c>
+      <c r="D128">
+        <v>0.9</v>
+      </c>
+      <c r="E128">
+        <v>1E-4</v>
+      </c>
+      <c r="F128">
+        <v>136.203125</v>
+      </c>
+      <c r="G128">
+        <v>62.011668006984138</v>
+      </c>
+      <c r="H128">
+        <v>0.9768</v>
+      </c>
+      <c r="I128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>20</v>
+      </c>
+      <c r="B129">
+        <v>512</v>
+      </c>
+      <c r="C129">
+        <v>1E-4</v>
+      </c>
+      <c r="D129">
+        <v>0.9</v>
+      </c>
+      <c r="E129">
+        <v>1E-3</v>
+      </c>
+      <c r="F129">
+        <v>137.703125</v>
+      </c>
+      <c r="G129">
+        <v>62.213290093001127</v>
+      </c>
+      <c r="H129">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="I129">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>20</v>
+      </c>
+      <c r="B130">
+        <v>512</v>
+      </c>
+      <c r="C130">
+        <v>1E-4</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F130">
+        <v>135.90625</v>
+      </c>
+      <c r="G130">
+        <v>62.565615181570756</v>
+      </c>
+      <c r="H130">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="I130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>20</v>
+      </c>
+      <c r="B131">
+        <v>512</v>
+      </c>
+      <c r="C131">
+        <v>1E-4</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1E-4</v>
+      </c>
+      <c r="F131">
+        <v>135.5</v>
+      </c>
+      <c r="G131">
+        <v>63.568465771189693</v>
+      </c>
+      <c r="H131">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="I131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>20</v>
+      </c>
+      <c r="B132">
+        <v>512</v>
+      </c>
+      <c r="C132">
+        <v>1E-4</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1E-3</v>
+      </c>
+      <c r="F132">
+        <v>135.421875</v>
+      </c>
+      <c r="G132">
+        <v>62.961860722902038</v>
+      </c>
+      <c r="H132">
+        <v>0.1016</v>
+      </c>
+      <c r="I132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>20</v>
+      </c>
+      <c r="B133">
+        <v>512</v>
+      </c>
+      <c r="C133">
+        <v>1E-3</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F133">
+        <v>136.421875</v>
+      </c>
+      <c r="G133">
+        <v>63.562285217143504</v>
+      </c>
+      <c r="H133">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="I133">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>20</v>
+      </c>
+      <c r="B134">
+        <v>512</v>
+      </c>
+      <c r="C134">
+        <v>1E-3</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>1E-4</v>
+      </c>
+      <c r="F134">
+        <v>136.28125</v>
+      </c>
+      <c r="G134">
+        <v>63.455453763877117</v>
+      </c>
+      <c r="H134">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I134">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>20</v>
+      </c>
+      <c r="B135">
+        <v>512</v>
+      </c>
+      <c r="C135">
+        <v>1E-3</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>1E-3</v>
+      </c>
+      <c r="F135">
+        <v>134.4375</v>
+      </c>
+      <c r="G135">
+        <v>63.301566299830228</v>
+      </c>
+      <c r="H135">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="I135">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>20</v>
+      </c>
+      <c r="B136">
+        <v>512</v>
+      </c>
+      <c r="C136">
+        <v>1E-3</v>
+      </c>
+      <c r="D136">
+        <v>0.5</v>
+      </c>
+      <c r="E136">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F136">
+        <v>137.4375</v>
+      </c>
+      <c r="G136">
+        <v>63.963949384299205</v>
+      </c>
+      <c r="H136">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="I136">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>20</v>
+      </c>
+      <c r="B137">
+        <v>512</v>
+      </c>
+      <c r="C137">
+        <v>1E-3</v>
+      </c>
+      <c r="D137">
+        <v>0.5</v>
+      </c>
+      <c r="E137">
+        <v>1E-4</v>
+      </c>
+      <c r="F137">
+        <v>136.71875</v>
+      </c>
+      <c r="G137">
+        <v>63.500387001576989</v>
+      </c>
+      <c r="H137">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="I137">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>20</v>
+      </c>
+      <c r="B138">
+        <v>512</v>
+      </c>
+      <c r="C138">
+        <v>1E-3</v>
+      </c>
+      <c r="D138">
+        <v>0.5</v>
+      </c>
+      <c r="E138">
+        <v>1E-3</v>
+      </c>
+      <c r="F138">
+        <v>137.25</v>
+      </c>
+      <c r="G138">
+        <v>63.268254882498837</v>
+      </c>
+      <c r="H138">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="I138">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>512</v>
+      </c>
+      <c r="C139">
+        <v>1E-3</v>
+      </c>
+      <c r="D139">
+        <v>0.9</v>
+      </c>
+      <c r="E139">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F139">
+        <v>135.5</v>
+      </c>
+      <c r="G139">
+        <v>62.892972329085374</v>
+      </c>
+      <c r="H139">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="I139">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140">
+        <v>512</v>
+      </c>
+      <c r="C140">
+        <v>1E-3</v>
+      </c>
+      <c r="D140">
+        <v>0.9</v>
+      </c>
+      <c r="E140">
+        <v>1E-4</v>
+      </c>
+      <c r="F140">
+        <v>137.015625</v>
+      </c>
+      <c r="G140">
+        <v>62.903201004151363</v>
+      </c>
+      <c r="H140">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="I140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>512</v>
+      </c>
+      <c r="C141">
+        <v>1E-3</v>
+      </c>
+      <c r="D141">
+        <v>0.9</v>
+      </c>
+      <c r="E141">
+        <v>1E-3</v>
+      </c>
+      <c r="F141">
+        <v>136.65625</v>
+      </c>
+      <c r="G141">
+        <v>61.54981452904142</v>
+      </c>
+      <c r="H141">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="I141">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142">
+        <v>512</v>
+      </c>
+      <c r="C142">
+        <v>1E-3</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F142">
+        <v>135.078125</v>
+      </c>
+      <c r="G142">
+        <v>61.935179650841263</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143">
+        <v>512</v>
+      </c>
+      <c r="C143">
+        <v>1E-3</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1E-4</v>
+      </c>
+      <c r="F143">
+        <v>134.6875</v>
+      </c>
+      <c r="G143">
+        <v>61.843564725259064</v>
+      </c>
+      <c r="H143">
+        <v>0.1104</v>
+      </c>
+      <c r="I143">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>20</v>
+      </c>
+      <c r="B144">
+        <v>512</v>
+      </c>
+      <c r="C144">
+        <v>1E-3</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1E-3</v>
+      </c>
+      <c r="F144">
+        <v>136.765625</v>
+      </c>
+      <c r="G144">
+        <v>61.880751893953118</v>
+      </c>
+      <c r="H144">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="I144">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>50</v>
+      </c>
+      <c r="B145">
+        <v>50</v>
+      </c>
+      <c r="C145">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F145">
+        <v>1119.53125</v>
+      </c>
+      <c r="G145">
+        <v>736.6365354846032</v>
+      </c>
+      <c r="H145">
+        <v>0.9708</v>
+      </c>
+      <c r="I145">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>50</v>
+      </c>
+      <c r="B146">
+        <v>50</v>
+      </c>
+      <c r="C146">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1E-4</v>
+      </c>
+      <c r="F146">
+        <v>1105.375</v>
+      </c>
+      <c r="G146">
+        <v>726.87784455215285</v>
+      </c>
+      <c r="H146">
+        <v>0.97</v>
+      </c>
+      <c r="I146">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>50</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+      <c r="C147">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>1E-3</v>
+      </c>
+      <c r="F147">
+        <v>1119.484375</v>
+      </c>
+      <c r="G147">
+        <v>731.50315789664342</v>
+      </c>
+      <c r="H147">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="I147">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>50</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+      <c r="C148">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D148">
+        <v>0.5</v>
+      </c>
+      <c r="E148">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F148">
+        <v>1105.703125</v>
+      </c>
+      <c r="G148">
+        <v>727.19608331461723</v>
+      </c>
+      <c r="H148">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="I148">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>50</v>
+      </c>
+      <c r="B149">
+        <v>50</v>
+      </c>
+      <c r="C149">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D149">
+        <v>0.5</v>
+      </c>
+      <c r="E149">
+        <v>1E-4</v>
+      </c>
+      <c r="F149">
+        <v>1064.625</v>
+      </c>
+      <c r="G149">
+        <v>695.37243317128775</v>
+      </c>
+      <c r="H149">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>50</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D150">
+        <v>0.5</v>
+      </c>
+      <c r="E150">
+        <v>1E-3</v>
+      </c>
+      <c r="F150">
+        <v>1060.65625</v>
+      </c>
+      <c r="G150">
+        <v>694.52567794706829</v>
+      </c>
+      <c r="H150">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="I150">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>50</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D151">
+        <v>0.9</v>
+      </c>
+      <c r="E151">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F151">
+        <v>1079.234375</v>
+      </c>
+      <c r="G151">
+        <v>705.78730097493008</v>
+      </c>
+      <c r="H151">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="I151">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>50</v>
+      </c>
+      <c r="B152">
+        <v>50</v>
+      </c>
+      <c r="C152">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D152">
+        <v>0.9</v>
+      </c>
+      <c r="E152">
+        <v>1E-4</v>
+      </c>
+      <c r="F152">
+        <v>1109.109375</v>
+      </c>
+      <c r="G152">
+        <v>730.04455468857543</v>
+      </c>
+      <c r="H152">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="I152">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>50</v>
+      </c>
+      <c r="B153">
+        <v>50</v>
+      </c>
+      <c r="C153">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D153">
+        <v>0.9</v>
+      </c>
+      <c r="E153">
+        <v>1E-3</v>
+      </c>
+      <c r="F153">
+        <v>1108.703125</v>
+      </c>
+      <c r="G153">
+        <v>729.54940126448685</v>
+      </c>
+      <c r="H153">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I153">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>50</v>
+      </c>
+      <c r="B154">
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F154">
+        <v>1095.28125</v>
+      </c>
+      <c r="G154">
+        <v>715.72294309567451</v>
+      </c>
+      <c r="H154">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="I154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>50</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>1E-4</v>
+      </c>
+      <c r="F155">
+        <v>1100.25</v>
+      </c>
+      <c r="G155">
+        <v>715.85600522603067</v>
+      </c>
+      <c r="H155">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="I155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>50</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+      <c r="C156">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1E-3</v>
+      </c>
+      <c r="F156">
+        <v>1101.96875</v>
+      </c>
+      <c r="G156">
+        <v>715.63693274987259</v>
+      </c>
+      <c r="H156">
+        <v>0.1028</v>
+      </c>
+      <c r="I156">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>50</v>
+      </c>
+      <c r="B157">
+        <v>50</v>
+      </c>
+      <c r="C157">
+        <v>1E-4</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F157">
+        <v>1108.71875</v>
+      </c>
+      <c r="G157">
+        <v>730.20350547356679</v>
+      </c>
+      <c r="H157">
+        <v>0.9788</v>
+      </c>
+      <c r="I157">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>50</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+      <c r="C158">
+        <v>1E-4</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>1E-4</v>
+      </c>
+      <c r="F158">
+        <v>1120.15625</v>
+      </c>
+      <c r="G158">
+        <v>738.93483491152699</v>
+      </c>
+      <c r="H158">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="I158">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>50</v>
+      </c>
+      <c r="B159">
+        <v>50</v>
+      </c>
+      <c r="C159">
+        <v>1E-4</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1E-3</v>
+      </c>
+      <c r="F159">
+        <v>1112.234375</v>
+      </c>
+      <c r="G159">
+        <v>731.04281227585909</v>
+      </c>
+      <c r="H159">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="I159">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>50</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+      <c r="C160">
+        <v>1E-4</v>
+      </c>
+      <c r="D160">
+        <v>0.5</v>
+      </c>
+      <c r="E160">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F160">
+        <v>1115.15625</v>
+      </c>
+      <c r="G160">
+        <v>729.73648452838938</v>
+      </c>
+      <c r="H160">
+        <v>0.9768</v>
+      </c>
+      <c r="I160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>50</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+      <c r="C161">
+        <v>1E-4</v>
+      </c>
+      <c r="D161">
+        <v>0.5</v>
+      </c>
+      <c r="E161">
+        <v>1E-4</v>
+      </c>
+      <c r="F161">
+        <v>1111.28125</v>
+      </c>
+      <c r="G161">
+        <v>734.11579829791754</v>
+      </c>
+      <c r="H161">
+        <v>0.9788</v>
+      </c>
+      <c r="I161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>50</v>
+      </c>
+      <c r="B162">
+        <v>50</v>
+      </c>
+      <c r="C162">
+        <v>1E-4</v>
+      </c>
+      <c r="D162">
+        <v>0.5</v>
+      </c>
+      <c r="E162">
+        <v>1E-3</v>
+      </c>
+      <c r="F162">
+        <v>1121.53125</v>
+      </c>
+      <c r="G162">
+        <v>742.8230207374886</v>
+      </c>
+      <c r="H162">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="I162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>50</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+      <c r="C163">
+        <v>1E-4</v>
+      </c>
+      <c r="D163">
+        <v>0.9</v>
+      </c>
+      <c r="E163">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F163">
+        <v>1114.609375</v>
+      </c>
+      <c r="G163">
+        <v>733.67264224873873</v>
+      </c>
+      <c r="H163">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="I163">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>50</v>
+      </c>
+      <c r="B164">
+        <v>50</v>
+      </c>
+      <c r="C164">
+        <v>1E-4</v>
+      </c>
+      <c r="D164">
+        <v>0.9</v>
+      </c>
+      <c r="E164">
+        <v>1E-4</v>
+      </c>
+      <c r="F164">
+        <v>1115</v>
+      </c>
+      <c r="G164">
+        <v>741.14492846810163</v>
+      </c>
+      <c r="H164">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="I164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>50</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+      <c r="C165">
+        <v>1E-4</v>
+      </c>
+      <c r="D165">
+        <v>0.9</v>
+      </c>
+      <c r="E165">
+        <v>1E-3</v>
+      </c>
+      <c r="F165">
+        <v>1110.140625</v>
+      </c>
+      <c r="G165">
+        <v>732.73168323347363</v>
+      </c>
+      <c r="H165">
+        <v>0.98</v>
+      </c>
+      <c r="I165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>50</v>
+      </c>
+      <c r="B166">
+        <v>50</v>
+      </c>
+      <c r="C166">
+        <v>1E-4</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F166">
+        <v>1097.484375</v>
+      </c>
+      <c r="G166">
+        <v>717.88512996249528</v>
+      </c>
+      <c r="H166">
+        <v>0.1148</v>
+      </c>
+      <c r="I166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>50</v>
+      </c>
+      <c r="B167">
+        <v>50</v>
+      </c>
+      <c r="C167">
+        <v>1E-4</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>1E-4</v>
+      </c>
+      <c r="F167">
+        <v>1099.375</v>
+      </c>
+      <c r="G167">
+        <v>717.15577356845642</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>50</v>
+      </c>
+      <c r="B168">
+        <v>50</v>
+      </c>
+      <c r="C168">
+        <v>1E-4</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1E-3</v>
+      </c>
+      <c r="F168">
+        <v>1122.59375</v>
+      </c>
+      <c r="G168">
+        <v>741.55627884399428</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>50</v>
+      </c>
+      <c r="B169">
+        <v>50</v>
+      </c>
+      <c r="C169">
+        <v>1E-3</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F169">
+        <v>1121.15625</v>
+      </c>
+      <c r="G169">
+        <v>737.95428249545375</v>
+      </c>
+      <c r="H169">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="I169">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>50</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+      <c r="C170">
+        <v>1E-3</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>1E-4</v>
+      </c>
+      <c r="F170">
+        <v>1119.9375</v>
+      </c>
+      <c r="G170">
+        <v>736.45674366850926</v>
+      </c>
+      <c r="H170">
+        <v>0.98</v>
+      </c>
+      <c r="I170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>50</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171">
+        <v>1E-3</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>1E-3</v>
+      </c>
+      <c r="F171">
+        <v>1127.8125</v>
+      </c>
+      <c r="G171">
+        <v>739.85436605398456</v>
+      </c>
+      <c r="H171">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="I171">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>50</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+      <c r="C172">
+        <v>1E-3</v>
+      </c>
+      <c r="D172">
+        <v>0.5</v>
+      </c>
+      <c r="E172">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F172">
+        <v>1125.71875</v>
+      </c>
+      <c r="G172">
+        <v>737.88086268145605</v>
+      </c>
+      <c r="H172">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="I172">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>50</v>
+      </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
+      <c r="C173">
+        <v>1E-3</v>
+      </c>
+      <c r="D173">
+        <v>0.5</v>
+      </c>
+      <c r="E173">
+        <v>1E-4</v>
+      </c>
+      <c r="F173">
+        <v>1124.984375</v>
+      </c>
+      <c r="G173">
+        <v>734.50358746235645</v>
+      </c>
+      <c r="H173">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="I173">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>50</v>
+      </c>
+      <c r="B174">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <v>1E-3</v>
+      </c>
+      <c r="D174">
+        <v>0.5</v>
+      </c>
+      <c r="E174">
+        <v>1E-3</v>
+      </c>
+      <c r="F174">
+        <v>1125.84375</v>
+      </c>
+      <c r="G174">
+        <v>738.23056509475202</v>
+      </c>
+      <c r="H174">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="I174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>50</v>
+      </c>
+      <c r="B175">
+        <v>50</v>
+      </c>
+      <c r="C175">
+        <v>1E-3</v>
+      </c>
+      <c r="D175">
+        <v>0.5</v>
+      </c>
+      <c r="E175">
+        <v>1E-3</v>
+      </c>
+      <c r="F175">
+        <v>1232.40625</v>
+      </c>
+      <c r="G175">
+        <v>828.18726680287193</v>
+      </c>
+      <c r="H175">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="I175">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
